--- a/biology/Zoologie/Eurema/Eurema.xlsx
+++ b/biology/Zoologie/Eurema/Eurema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eurema regroupe des lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Coliadinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eurema a été nommé par Jakob Hübner en 1819.
-Synonymes : Abaeis (Hübner, 1819), Terias (Swainson, 1821), Xanthidia (Boisduval et Le Conte, 1829), Lucidia (Lacordaire, 1833), Heurema (Agassiz, 1847), Pyrisitia (Butler), Sphaenogona (Butler, 1870), Maiva (Grose-Smith et Kirby, 1893), Kibreeta (Moore, 1906), Nirmula (Moore, 1906), Teriocolias (Röber, 1909)[1]
+Synonymes : Abaeis (Hübner, 1819), Terias (Swainson, 1821), Xanthidia (Boisduval et Le Conte, 1829), Lucidia (Lacordaire, 1833), Heurema (Agassiz, 1847), Pyrisitia (Butler), Sphaenogona (Butler, 1870), Maiva (Grose-Smith et Kirby, 1893), Kibreeta (Moore, 1906), Nirmula (Moore, 1906), Teriocolias (Röber, 1909)
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eurema ada (Distant et Pryer, 1887).
 Eurema ada ada
@@ -725,9 +741,43 @@
 Eurema tominia toradja (Fruhstorfe) au Sulawesi.
 Eurema timorensis (Shirôzu et Yata, 1977) à Timor.
 Eurema upembana (Berger, 1981)
-Eurema zamida (Fruhstorfer, 1908).
-Sous-groupe NA
-Eurema adamsi (Lathy, 1898) à la Jamaïque.
+Eurema zamida (Fruhstorfer, 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurema</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-groupe NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurema adamsi (Lathy, 1898) à la Jamaïque.
 Eurema agave (Cramer, 1775).
 Eurema agave agave au Suriname et en Guyane française.
 Eurema agave millerorum (Llorente et Luis, 1987) au Mexique.
@@ -739,11 +789,11 @@
 Eurema albula marginella (C. et R. Felder, 1861) au Venezuela.
 Eurema albula sinoe (Godart, 1819) au Brésil.
 Eurema albula totora (Lamas, 1981) au Pérou.
-Eurema amelia (Poey, [1832]) à Cuba.
+Eurema amelia (Poey, ) à Cuba.
 Eurema arbela C. et R. Felder, 1861.
 Eurema arbela arbela en Bolivie.
 Eurema arbela angulata (Wallengren, 1860) en Équateur et au Pérou.
-Eurema arbela boisduvaliana (C. et R. Felder, [1865]) au Mexique, au Costa Rica, aux Antilles.
+Eurema arbela boisduvaliana (C. et R. Felder, ) au Mexique, au Costa Rica, aux Antilles.
 Eurema arbela deflorata (Kollar, 1850) en Colombie.
 Eurema arbela gracilis (Avinoff, 1926) au Brésil.
 Eurema arbela  graduata (Butler, 1873) au Brésil.
@@ -786,7 +836,7 @@
 Eurema reticulata (Butler, 1871) au Pérou et en Équateur.
 Eurema salome (Butler, 1871) du sud de l'Amérique du Nord au nord de l'Amérique du Sud.
 Eurema salome salome  au Pérou.
-Eurema salome gaugamela (C. et R. Felder, [1865]) en Colombie et au Venezuela.
+Eurema salome gaugamela (C. et R. Felder, ) en Colombie et au Venezuela.
 Eurema salome jamapa (Reakirt, 1866) au Mexique.
 Eurema salome limoneus (C. et R. Felder, 1861) au Venezuela.
 Eurema salome xystra (d'Almeida, 1936)  en Équateur.
@@ -794,12 +844,80 @@
 Eurema xanthochlora (Kollar, 1850).
 Eurema xanthochlora xanthochlora au Mexique, Costa Rica, Nicaragua, Venezuela et en Colombie.
 Eurema xanthochlora ectriva (Butler, 1873)  en Équateur.
-Eurema xanthochlora pomponia (Hopffer, 1874) au Pérou.
-Sous-groupe abaeis
-Eurema nicippe (Cramer, 1779) dans le sud de l'Amérique du Nord et au Costa Rica.
-Eurema nicippiformis (Munroe, 1947) à Haïti.
-Sous-groupe pyrisitia
-Eurema chamberlaini (Fruhstorfer) aux Bahamas.
+Eurema xanthochlora pomponia (Hopffer, 1874) au Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eurema</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-groupe abaeis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eurema nicippe (Cramer, 1779) dans le sud de l'Amérique du Nord et au Costa Rica.
+Eurema nicippiformis (Munroe, 1947) à Haïti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-groupe pyrisitia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eurema chamberlaini (Fruhstorfer) aux Bahamas.
 Eurema chamberlaini chamberlaini
 Eurema chamberlaini clenchi (Miller, Simon et Harvey, 1992)
 Eurema chamberlaini inaguae (Munroe, 1950)
@@ -814,7 +932,7 @@
 Eurema leuce (Boisduval, 1836).
 Eurema leuce leuce au Brésil et en Uruguay.
 Eurema leuce antillarum (Hall, 1936) à Sainte Lucie, la Dominique et Porto Rico.
-Eurema leuce athalia (C. et R. Felder, [1865])
+Eurema leuce athalia (C. et R. Felder, )
 Eurema leuce circumcincta (Bates, 1861) au Brésil.
 Eurema leuce flavilla (Bates, 1861) au Brésil.
 Eurema leuce memulus (Butler, 1871)  à Haïti.
@@ -836,9 +954,43 @@
 Eurema venusta (Boisduval, 1836) à la Jamaïque, à Trinité-et-Tobago et en Colombie.
 Eurema venusta venusta au Venezuela, au Suriname et en Guyane française
 Eurema venusta aequatorialis (C. et R. Felder, 1861)
-Eurema venusta emanona (Dillon, 1947) aux Antilles.
-Sous-groupe teriocolias
-Eurema zelia (Lucas, 1852).
+Eurema venusta emanona (Dillon, 1947) aux Antilles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurema</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-groupe teriocolias</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eurema zelia (Lucas, 1852).
 Eurema zelia zelia en Bolivie,  au Pérou et en Argentine.
 Eurema zelia andina (Forbes, 1928) au Pérou et au Chili.
 Eurema zelia mathani (Field, 1950) au Pérou.
